--- a/Hardware/Potential_Components.xlsx
+++ b/Hardware/Potential_Components.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan Moore\Documents\SkateBoard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan Moore\Documents\ElectricSkateboard\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDD46DF1-56C0-4174-9E4F-DD6B2CCD2ACC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E05798-681F-402D-A809-5B9E7199AC43}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E54D7CB-186D-48D6-A8EE-9D5DD08C22DF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Motor Driver</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/infineon-technologies/XMC1100T016X0064ABXUMA1/XMC1100T016X0064ABXUMA1CT-ND/6026160</t>
+  </si>
+  <si>
+    <t>https://www.infineon.com/cms/en/product/microcontroller/32-bit-industrial-microcontroller-based-on-arm-cortex-m/32-bit-xmc1000-industrial-microcontroller-arm-cortex-m0/#!documents</t>
   </si>
 </sst>
 </file>
@@ -539,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929BE5F6-E3FF-4483-815B-EA55BB07C10D}">
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V48" sqref="V48"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,14 +865,20 @@
         <v>44</v>
       </c>
     </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" xr:uid="{1171EBD7-C58E-4461-88F1-2B0B14686329}"/>
     <hyperlink ref="A10" r:id="rId2" xr:uid="{A8B7FFBA-EFDC-4A54-8622-64DC9492B895}"/>
     <hyperlink ref="B50" r:id="rId3" xr:uid="{EA39D6D2-11BD-447D-9F9E-D5A6B94395EC}"/>
     <hyperlink ref="A62" r:id="rId4" xr:uid="{1F81DA38-00A7-4486-9054-B21E099FD2F0}"/>
+    <hyperlink ref="A63" r:id="rId5" location="!documents" display="https://www.infineon.com/cms/en/product/microcontroller/32-bit-industrial-microcontroller-based-on-arm-cortex-m/32-bit-xmc1000-industrial-microcontroller-arm-cortex-m0/ - !documents" xr:uid="{1B907B18-D7FB-4A61-ACB7-9F5C6407E171}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>